--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/NORTH_CAROLINA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/NORTH_CAROLINA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1597"/>
+  <dimension ref="A1:D1591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -420,7 +420,7 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>0.0009577233547680941</v>
+        <v>0.000957723354768094</v>
       </c>
     </row>
     <row r="5">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C32">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C36">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C44">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C49">
@@ -1304,7 +1304,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C71">
@@ -1369,7 +1369,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C76">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C85">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C86">
@@ -1985,7 +1985,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C123">
@@ -1998,7 +1998,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C124">
@@ -2089,7 +2089,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C131">
@@ -2128,7 +2128,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C134">
@@ -2354,7 +2354,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C151">
@@ -2528,7 +2528,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2585,7 +2585,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C168">
@@ -2902,7 +2902,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C192">
@@ -2954,7 +2954,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C196">
@@ -3032,7 +3032,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C202">
@@ -3045,7 +3045,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C203">
@@ -3175,12 +3175,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C213">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C216">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C217">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C223">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C230">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C235">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C241">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C242">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C256">
@@ -3843,7 +3843,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C264">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C265">
@@ -3869,7 +3869,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C266">
@@ -3895,7 +3895,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C268">
@@ -4012,7 +4012,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C277">
@@ -4168,7 +4168,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C289">
@@ -4246,7 +4246,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C295">
@@ -4259,7 +4259,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C296">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C297">
@@ -4420,7 +4420,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C308">
@@ -4433,7 +4433,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C309">
@@ -4446,7 +4446,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C310">
@@ -4479,7 +4479,7 @@
         <v>204</v>
       </c>
       <c r="D312">
-        <v>0.009303598303461487</v>
+        <v>0.009303598303461488</v>
       </c>
     </row>
     <row r="313">
@@ -4550,7 +4550,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C318">
@@ -4602,7 +4602,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C322">
@@ -4706,7 +4706,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C330">
@@ -4758,7 +4758,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C334">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C336">
@@ -4810,7 +4810,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C338">
@@ -4836,7 +4836,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C340">
@@ -4849,7 +4849,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C341">
@@ -4914,7 +4914,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C346">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C352">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C355">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C356">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C360">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C362">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C363">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C366">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C367">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C368">
@@ -5218,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C369">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C374">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C375">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C379">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C380">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C386">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C387">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C389">
@@ -5491,7 +5491,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C390">
@@ -5511,13 +5511,13 @@
         <v>21</v>
       </c>
       <c r="D391">
-        <v>0.0009577233547680941</v>
+        <v>0.000957723354768094</v>
       </c>
     </row>
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C392">
@@ -5556,7 +5556,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C395">
@@ -5693,7 +5693,7 @@
         <v>21</v>
       </c>
       <c r="D405">
-        <v>0.0009577233547680941</v>
+        <v>0.000957723354768094</v>
       </c>
     </row>
     <row r="406">
@@ -5725,7 +5725,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C408">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C410">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C412">
@@ -5803,7 +5803,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C414">
@@ -5842,7 +5842,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C417">
@@ -5855,7 +5855,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C418">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C430">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C435">
@@ -6094,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C436">
@@ -6172,14 +6172,14 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C442">
         <v>21</v>
       </c>
       <c r="D442">
-        <v>0.0009577233547680941</v>
+        <v>0.000957723354768094</v>
       </c>
     </row>
     <row r="443">
@@ -6211,7 +6211,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C445">
@@ -6250,7 +6250,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C448">
@@ -6289,7 +6289,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C451">
@@ -6367,7 +6367,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C457">
@@ -6380,7 +6380,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C458">
@@ -6393,7 +6393,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C459">
@@ -6419,7 +6419,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C461">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C462">
@@ -6445,7 +6445,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C463">
@@ -6484,7 +6484,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C466">
@@ -6562,7 +6562,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C472">
@@ -6575,7 +6575,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C473">
@@ -6627,7 +6627,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C477">
@@ -6653,7 +6653,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C479">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C480">
@@ -6705,7 +6705,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C483">
@@ -6796,7 +6796,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C490">
@@ -6809,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C491">
@@ -6848,7 +6848,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C494">
@@ -6861,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C495">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C500">
@@ -6970,7 +6970,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C503">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C504">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C505">
@@ -7061,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C510">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C515">
@@ -7159,7 +7159,7 @@
         <v>21</v>
       </c>
       <c r="D517">
-        <v>0.0009577233547680941</v>
+        <v>0.000957723354768094</v>
       </c>
     </row>
     <row r="518">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C521">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C525">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C526">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C529">
@@ -7386,7 +7386,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C535">
@@ -7438,7 +7438,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C539">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C547">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C549">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C550">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C551">
@@ -7607,7 +7607,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C552">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C555">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C556">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C558">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C562">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C563">
@@ -7776,7 +7776,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C565">
@@ -7789,7 +7789,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C566">
@@ -7854,7 +7854,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C571">
@@ -7867,7 +7867,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C572">
@@ -7880,7 +7880,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C573">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C578">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C579">
@@ -7984,7 +7984,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C581">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C582">
@@ -9094,7 +9094,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C666">
@@ -9411,7 +9411,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C690">
@@ -9502,7 +9502,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C697">
@@ -9554,7 +9554,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C701">
@@ -9619,7 +9619,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C706">
@@ -9632,7 +9632,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C707">
@@ -9710,7 +9710,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C713">
@@ -9767,7 +9767,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C717">
@@ -9806,7 +9806,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C720">
@@ -9884,7 +9884,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C726">
@@ -10084,7 +10084,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C741">
@@ -10110,7 +10110,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C743">
@@ -10162,7 +10162,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C747">
@@ -10232,7 +10232,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C752">
@@ -10336,7 +10336,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C760">
@@ -10362,7 +10362,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C762">
@@ -10401,7 +10401,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C765">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C768">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C769">
@@ -10466,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C770">
@@ -10479,7 +10479,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C771">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C772">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C773">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C774">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C784">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C787">
@@ -10726,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C790">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C791">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C792">
@@ -10765,7 +10765,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C793">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C795">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C806">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C817">
@@ -11272,7 +11272,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C832">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C839">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C846">
@@ -11467,7 +11467,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C847">
@@ -11948,7 +11948,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C884">
@@ -11961,7 +11961,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C885">
@@ -11974,7 +11974,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C886">
@@ -12130,7 +12130,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C898">
@@ -12169,7 +12169,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C901">
@@ -12364,7 +12364,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C916">
@@ -12507,7 +12507,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C927">
@@ -12553,7 +12553,7 @@
         <v>21</v>
       </c>
       <c r="D930">
-        <v>0.0009577233547680941</v>
+        <v>0.000957723354768094</v>
       </c>
     </row>
     <row r="931">
@@ -12624,7 +12624,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C936">
@@ -12676,7 +12676,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C940">
@@ -12689,7 +12689,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C941">
@@ -12819,7 +12819,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C951">
@@ -12897,7 +12897,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C957">
@@ -12923,7 +12923,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Santa María la Asunción</t>
+          <t>Santa María La Asunción</t>
         </is>
       </c>
       <c r="C959">
@@ -13222,7 +13222,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C982">
@@ -13599,7 +13599,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1011">
@@ -13833,7 +13833,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1029">
@@ -13859,7 +13859,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1031">
@@ -13872,7 +13872,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1032">
@@ -13885,7 +13885,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1033">
@@ -13898,7 +13898,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1034">
@@ -13924,7 +13924,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1036">
@@ -13963,7 +13963,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1039">
@@ -13976,7 +13976,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1040">
@@ -13989,7 +13989,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1041">
@@ -14002,7 +14002,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1042">
@@ -14015,7 +14015,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1043">
@@ -14054,7 +14054,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1046">
@@ -14067,7 +14067,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1047">
@@ -14106,7 +14106,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1050">
@@ -14345,7 +14345,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1068">
@@ -14449,7 +14449,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1076">
@@ -14657,7 +14657,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1092">
@@ -14683,7 +14683,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1094">
@@ -14722,7 +14722,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1097">
@@ -14891,7 +14891,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1110">
@@ -15112,7 +15112,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1127">
@@ -15125,7 +15125,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1128">
@@ -15203,7 +15203,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1134">
@@ -15294,7 +15294,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1141">
@@ -15307,7 +15307,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1142">
@@ -15385,7 +15385,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1148">
@@ -15398,7 +15398,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1149">
@@ -15463,7 +15463,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1154">
@@ -15606,7 +15606,7 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1165">
@@ -15819,7 +15819,7 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1181">
@@ -15845,7 +15845,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1183">
@@ -15923,7 +15923,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1189">
@@ -15936,7 +15936,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1190">
@@ -15975,7 +15975,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1193">
@@ -16014,7 +16014,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1196">
@@ -16167,7 +16167,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1207">
@@ -16180,7 +16180,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1208">
@@ -16258,7 +16258,7 @@
     <row r="1214">
       <c r="B1214" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1214">
@@ -16375,7 +16375,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1223">
@@ -16453,7 +16453,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1229">
@@ -16531,7 +16531,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1235">
@@ -16557,7 +16557,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1237">
@@ -16648,7 +16648,7 @@
     <row r="1244">
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1244">
@@ -16700,7 +16700,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1248">
@@ -16713,7 +16713,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1249">
@@ -16726,7 +16726,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1250">
@@ -16739,7 +16739,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1251">
@@ -16752,7 +16752,7 @@
     <row r="1252">
       <c r="B1252" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1252">
@@ -17268,7 +17268,7 @@
         <v>21</v>
       </c>
       <c r="D1290">
-        <v>0.0009577233547680941</v>
+        <v>0.000957723354768094</v>
       </c>
     </row>
     <row r="1291">
@@ -17326,7 +17326,7 @@
     <row r="1295">
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1295">
@@ -17799,7 +17799,7 @@
     <row r="1331">
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1331">
@@ -17921,7 +17921,7 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1340">
@@ -18038,7 +18038,7 @@
     <row r="1349">
       <c r="B1349" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1349">
@@ -18077,7 +18077,7 @@
     <row r="1352">
       <c r="B1352" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1352">
@@ -18090,7 +18090,7 @@
     <row r="1353">
       <c r="B1353" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1353">
@@ -18103,7 +18103,7 @@
     <row r="1354">
       <c r="B1354" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1354">
@@ -18155,7 +18155,7 @@
     <row r="1358">
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1358">
@@ -18394,7 +18394,7 @@
     <row r="1376">
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1376">
@@ -18446,7 +18446,7 @@
     <row r="1380">
       <c r="B1380" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1380">
@@ -18537,7 +18537,7 @@
     <row r="1387">
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1387">
@@ -18563,7 +18563,7 @@
     <row r="1389">
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1389">
@@ -18602,7 +18602,7 @@
     <row r="1392">
       <c r="B1392" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1392">
@@ -18693,7 +18693,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1399">
@@ -18823,7 +18823,7 @@
     <row r="1409">
       <c r="B1409" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1409">
@@ -18836,7 +18836,7 @@
     <row r="1410">
       <c r="B1410" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1410">
@@ -19044,7 +19044,7 @@
     <row r="1426">
       <c r="B1426" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1426">
@@ -19057,7 +19057,7 @@
     <row r="1427">
       <c r="B1427" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1427">
@@ -19070,7 +19070,7 @@
     <row r="1428">
       <c r="B1428" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1428">
@@ -19122,7 +19122,7 @@
     <row r="1432">
       <c r="B1432" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1432">
@@ -19135,7 +19135,7 @@
     <row r="1433">
       <c r="B1433" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1433">
@@ -19148,7 +19148,7 @@
     <row r="1434">
       <c r="B1434" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1434">
@@ -19161,7 +19161,7 @@
     <row r="1435">
       <c r="B1435" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1435">
@@ -19304,7 +19304,7 @@
     <row r="1446">
       <c r="B1446" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1446">
@@ -19343,7 +19343,7 @@
     <row r="1449">
       <c r="B1449" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1449">
@@ -19382,7 +19382,7 @@
     <row r="1452">
       <c r="B1452" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1452">
@@ -19421,7 +19421,7 @@
     <row r="1455">
       <c r="B1455" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1455">
@@ -19460,7 +19460,7 @@
     <row r="1458">
       <c r="B1458" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1458">
@@ -19486,7 +19486,7 @@
     <row r="1460">
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1460">
@@ -19603,7 +19603,7 @@
     <row r="1469">
       <c r="B1469" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1469">
@@ -19655,7 +19655,7 @@
     <row r="1473">
       <c r="B1473" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1473">
@@ -19668,7 +19668,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1474">
@@ -19720,14 +19720,14 @@
     <row r="1478">
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1478">
         <v>21</v>
       </c>
       <c r="D1478">
-        <v>0.0009577233547680941</v>
+        <v>0.000957723354768094</v>
       </c>
     </row>
     <row r="1479">
@@ -19863,7 +19863,7 @@
     <row r="1489">
       <c r="B1489" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1489">
@@ -19902,7 +19902,7 @@
     <row r="1492">
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1492">
@@ -19980,7 +19980,7 @@
     <row r="1498">
       <c r="B1498" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1498">
@@ -20396,7 +20396,7 @@
     <row r="1530">
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1530">
@@ -20692,7 +20692,7 @@
     <row r="1552">
       <c r="B1552" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1552">
@@ -20718,7 +20718,7 @@
     <row r="1554">
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1554">
@@ -20848,7 +20848,7 @@
     <row r="1564">
       <c r="B1564" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1564">
@@ -20939,7 +20939,7 @@
     <row r="1571">
       <c r="B1571" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1571">
@@ -21069,7 +21069,7 @@
     <row r="1581">
       <c r="B1581" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1581">
@@ -21108,7 +21108,7 @@
     <row r="1584">
       <c r="B1584" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1584">
@@ -21207,41 +21207,6 @@
       </c>
       <c r="D1591">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1593">
-      <c r="A1593" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1594">
-      <c r="A1594" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1595">
-      <c r="A1595" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1596">
-      <c r="A1596" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1597">
-      <c r="A1597" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
